--- a/Statystyki_2018/Template/oglk.xlsx
+++ b/Statystyki_2018/Template/oglk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\priv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E666EB4-A0D8-41DD-8AB6-B00FC8F3EBE8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1928E4A4-5923-40E2-AF89-FDB548DAF91D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36675" yWindow="1500" windowWidth="17280" windowHeight="9075" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw 5" sheetId="1" r:id="rId1"/>
@@ -772,32 +772,32 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1176,37 +1176,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="48.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="1024" width="8.5703125" customWidth="1"/>
+    <col min="8" max="1024" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+    <row r="1" spans="1:21" ht="17.399999999999999">
+      <c r="A1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -1236,123 +1236,123 @@
       <c r="U2" s="2"/>
     </row>
     <row r="3" spans="1:21" ht="16.350000000000001" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="35" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="35" t="s">
+      <c r="U3" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="27.4" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="36" t="s">
+    <row r="4" spans="1:21" ht="27.45" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="33" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="34" t="s">
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="33" t="s">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="35" t="s">
+      <c r="S4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
     </row>
     <row r="5" spans="1:21" ht="15" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="33" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33" t="s">
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33" t="s">
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="M5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
     </row>
     <row r="6" spans="1:21" ht="63.75" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="33"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1368,20 +1368,20 @@
       <c r="K6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="33"/>
+      <c r="L6" s="34"/>
       <c r="M6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="30">
@@ -1450,6 +1450,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:S3"/>
     <mergeCell ref="T3:T6"/>
     <mergeCell ref="U3:U6"/>
     <mergeCell ref="C4:C6"/>
@@ -1466,12 +1472,6 @@
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
     <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1484,9 +1484,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1497,7 +1497,7 @@
     <row r="2" spans="1:12">
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="13.9" customHeight="1">
+    <row r="3" spans="1:12" ht="13.95" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
@@ -1553,17 +1553,17 @@
       <selection activeCell="D3" sqref="D3:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18">
+    <row r="1" spans="2:5" ht="17.399999999999999">
       <c r="B1" s="40" t="s">
         <v>29</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
     </row>
-    <row r="2" spans="2:5" ht="15.75">
+    <row r="2" spans="2:5" ht="15.6">
       <c r="B2" s="41" t="s">
         <v>30</v>
       </c>
@@ -1697,33 +1697,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" customWidth="1"/>
-    <col min="16" max="16" width="4.42578125" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" customWidth="1"/>
-    <col min="18" max="18" width="5.28515625" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" customWidth="1"/>
-    <col min="20" max="20" width="4.42578125" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="28" width="4.140625" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" customWidth="1"/>
-    <col min="30" max="1028" width="8.5703125" customWidth="1"/>
+    <col min="8" max="10" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="15" width="4.88671875" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.109375" customWidth="1"/>
+    <col min="18" max="18" width="5.33203125" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" customWidth="1"/>
+    <col min="20" max="20" width="4.44140625" customWidth="1"/>
+    <col min="21" max="21" width="8.5546875" customWidth="1"/>
+    <col min="22" max="22" width="11.44140625" customWidth="1"/>
+    <col min="23" max="23" width="14.6640625" customWidth="1"/>
+    <col min="24" max="28" width="4.109375" customWidth="1"/>
+    <col min="29" max="29" width="7.109375" customWidth="1"/>
+    <col min="30" max="1028" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="30.75" customHeight="1">
@@ -1775,7 +1775,7 @@
       <c r="AB1" s="44"/>
       <c r="AC1" s="44"/>
     </row>
-    <row r="2" spans="1:29" ht="32.25" thickBot="1">
+    <row r="2" spans="1:29" ht="16.2" thickBot="1">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
